--- a/data/trans_orig/MCS12_SP_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/MCS12_SP_R2-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>263842</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>237717</v>
+        <v>237676</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>287236</v>
+        <v>288157</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3801690875864296</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3425250771999013</v>
+        <v>0.3424666239393925</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.41387727367895</v>
+        <v>0.4152050223562615</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>333</v>
@@ -765,19 +765,19 @@
         <v>328511</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>302225</v>
+        <v>303408</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>352863</v>
+        <v>352713</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4772429552846951</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4390571587610991</v>
+        <v>0.4407749267072587</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5126205217434993</v>
+        <v>0.5124026639835506</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>599</v>
@@ -786,19 +786,19 @@
         <v>592353</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>557744</v>
+        <v>556513</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>630755</v>
+        <v>629366</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.428507251462664</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4034713410160874</v>
+        <v>0.4025810753554711</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4562878354814107</v>
+        <v>0.4552824056622429</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>430170</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>406776</v>
+        <v>405855</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>456295</v>
+        <v>456336</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6198309124135704</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5861227263210501</v>
+        <v>0.5847949776437384</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.657474922800099</v>
+        <v>0.6575333760606075</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>363</v>
@@ -836,19 +836,19 @@
         <v>359840</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>335488</v>
+        <v>335638</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>386126</v>
+        <v>384943</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5227570447153049</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4873794782565007</v>
+        <v>0.4875973360164494</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5609428412389008</v>
+        <v>0.5592250732927413</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>780</v>
@@ -857,19 +857,19 @@
         <v>790010</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>751608</v>
+        <v>752997</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>824619</v>
+        <v>825850</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.571492748537336</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5437121645185887</v>
+        <v>0.5447175943377569</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5965286589839124</v>
+        <v>0.5974189246445287</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>414248</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>382154</v>
+        <v>381597</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>448057</v>
+        <v>445935</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4307012163252394</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3973317750968516</v>
+        <v>0.3967534819840403</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.46585206199032</v>
+        <v>0.4636465176845214</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>508</v>
@@ -982,19 +982,19 @@
         <v>546597</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>516612</v>
+        <v>515221</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>576574</v>
+        <v>578065</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.564437085011904</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5334735975511233</v>
+        <v>0.5320374478324864</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5953929270966007</v>
+        <v>0.5969324280950163</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>893</v>
@@ -1003,19 +1003,19 @@
         <v>960845</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>912492</v>
+        <v>912472</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1004208</v>
+        <v>1004373</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4977975546739065</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4727463847002555</v>
+        <v>0.4727359862252272</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5202631226409107</v>
+        <v>0.5203486001861598</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>547552</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>513743</v>
+        <v>515865</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>579646</v>
+        <v>580203</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5692987836747606</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5341479380096801</v>
+        <v>0.5363534823154785</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6026682249031486</v>
+        <v>0.6032465180159597</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>400</v>
@@ -1053,19 +1053,19 @@
         <v>421796</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>391819</v>
+        <v>390328</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>451781</v>
+        <v>453172</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4355629149880959</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4046070729033995</v>
+        <v>0.4030675719049837</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4665264024488768</v>
+        <v>0.4679625521675138</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>911</v>
@@ -1074,19 +1074,19 @@
         <v>969348</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>925985</v>
+        <v>925820</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1017701</v>
+        <v>1017721</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5022024453260936</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4797368773590893</v>
+        <v>0.4796513998138403</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5272536152997445</v>
+        <v>0.5272640137747727</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>296472</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>272007</v>
+        <v>268017</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>323671</v>
+        <v>323382</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.43694642255623</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4008896546789125</v>
+        <v>0.3950085712331242</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4770321344353498</v>
+        <v>0.4766063518840851</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>382</v>
@@ -1199,19 +1199,19 @@
         <v>374669</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>346804</v>
+        <v>349695</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>398855</v>
+        <v>400303</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5478887760751645</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5071412315619146</v>
+        <v>0.5113691899789844</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5832569990186736</v>
+        <v>0.5853738988360867</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>661</v>
@@ -1220,19 +1220,19 @@
         <v>671141</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>633813</v>
+        <v>630928</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>706203</v>
+        <v>705396</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4926347087571425</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4652352804216215</v>
+        <v>0.4631177026805715</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5183708330946272</v>
+        <v>0.5177788656428566</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>382037</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>354838</v>
+        <v>355127</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>406502</v>
+        <v>410492</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.56305357744377</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5229678655646502</v>
+        <v>0.5233936481159146</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5991103453210875</v>
+        <v>0.6049914287668754</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>314</v>
@@ -1270,19 +1270,19 @@
         <v>309172</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>284986</v>
+        <v>283538</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>337037</v>
+        <v>334146</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4521112239248354</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4167430009813265</v>
+        <v>0.4146261011639133</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4928587684380854</v>
+        <v>0.4886308100210154</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>676</v>
@@ -1291,19 +1291,19 @@
         <v>691209</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>656147</v>
+        <v>656954</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>728537</v>
+        <v>731422</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5073652912428575</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4816291669053731</v>
+        <v>0.4822211343571434</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5347647195783787</v>
+        <v>0.5368822973194286</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>441550</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>412934</v>
+        <v>410895</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>471397</v>
+        <v>473495</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4686264122524388</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4382557153262409</v>
+        <v>0.4360910272407457</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5003040329364357</v>
+        <v>0.5025299860221873</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>559</v>
@@ -1416,19 +1416,19 @@
         <v>581121</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>546936</v>
+        <v>550877</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>611637</v>
+        <v>613424</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5595172823109021</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.526602903704228</v>
+        <v>0.5303973535877964</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5888983399841602</v>
+        <v>0.5906189050943063</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1011</v>
@@ -1437,19 +1437,19 @@
         <v>1022671</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>977102</v>
+        <v>976160</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1065882</v>
+        <v>1062258</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5162832799484645</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4932783172706901</v>
+        <v>0.4928026519879892</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5380976781276922</v>
+        <v>0.5362678296733735</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>500672</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>470825</v>
+        <v>468727</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>529288</v>
+        <v>531327</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5313735877475612</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4996959670635643</v>
+        <v>0.4974700139778127</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5617442846737593</v>
+        <v>0.5639089727592543</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>438</v>
@@ -1487,19 +1487,19 @@
         <v>457491</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>426975</v>
+        <v>425188</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>491676</v>
+        <v>487735</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4404827176890979</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4111016600158397</v>
+        <v>0.4093810949056936</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.473397096295772</v>
+        <v>0.4696026464122036</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>980</v>
@@ -1508,19 +1508,19 @@
         <v>958163</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>914952</v>
+        <v>918576</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1003732</v>
+        <v>1004674</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4837167200515356</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.461902321872308</v>
+        <v>0.4637321703266266</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.50672168272931</v>
+        <v>0.5071973480120107</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>1416113</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1358756</v>
+        <v>1362283</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1474694</v>
+        <v>1476078</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4321971455065917</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.414692007002441</v>
+        <v>0.4157683260250113</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4500762056060974</v>
+        <v>0.45049844778864</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1782</v>
@@ -1633,19 +1633,19 @@
         <v>1830898</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1773308</v>
+        <v>1767675</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1888675</v>
+        <v>1886844</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5418144492936345</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5247719197396368</v>
+        <v>0.5231049842803942</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5589122367738513</v>
+        <v>0.5583703995645004</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3164</v>
@@ -1654,19 +1654,19 @@
         <v>3247011</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3168994</v>
+        <v>3168640</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3332888</v>
+        <v>3329927</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.487851131820891</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4761293522187702</v>
+        <v>0.4760762846735229</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5007538817860366</v>
+        <v>0.5003090539878823</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>1860430</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1801849</v>
+        <v>1800465</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1917787</v>
+        <v>1914260</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5678028544934083</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5499237943939027</v>
+        <v>0.54950155221136</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5853079929975593</v>
+        <v>0.5842316739749887</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1515</v>
@@ -1704,19 +1704,19 @@
         <v>1548299</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1490522</v>
+        <v>1492353</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1605889</v>
+        <v>1611522</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4581855507063654</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4410877632261487</v>
+        <v>0.4416296004354996</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4752280802603633</v>
+        <v>0.4768950157196057</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3347</v>
@@ -1725,19 +1725,19 @@
         <v>3408730</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3322853</v>
+        <v>3325814</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3486747</v>
+        <v>3487101</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.512148868179109</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4992461182139633</v>
+        <v>0.4996909460121177</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5238706477812297</v>
+        <v>0.5239237153264772</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>350142</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>321792</v>
+        <v>319927</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>375105</v>
+        <v>376712</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4977355952531298</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4574365790620971</v>
+        <v>0.4547852348342208</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5332219180251099</v>
+        <v>0.5355063380591981</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>428</v>
@@ -2090,19 +2090,19 @@
         <v>463543</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>435020</v>
+        <v>437058</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>486492</v>
+        <v>487236</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6650069550096401</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6240875174185048</v>
+        <v>0.6270104934932325</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6979294385680298</v>
+        <v>0.6989967079401296</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>770</v>
@@ -2111,19 +2111,19 @@
         <v>813685</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>774518</v>
+        <v>774840</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>849867</v>
+        <v>850548</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5809879488620949</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5530222141398879</v>
+        <v>0.55325225565629</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6068225836572355</v>
+        <v>0.6073089188808168</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>353327</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>328364</v>
+        <v>326757</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>381677</v>
+        <v>383542</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5022644047468702</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4667780819748902</v>
+        <v>0.4644936619408019</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5425634209379029</v>
+        <v>0.5452147651657792</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>222</v>
@@ -2161,19 +2161,19 @@
         <v>233507</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>210558</v>
+        <v>209814</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>262030</v>
+        <v>259992</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3349930449903598</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3020705614319701</v>
+        <v>0.3010032920598705</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3759124825814956</v>
+        <v>0.3729895065067678</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>554</v>
@@ -2182,19 +2182,19 @@
         <v>586834</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>550652</v>
+        <v>549971</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>626001</v>
+        <v>625679</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4190120511379051</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3931774163427645</v>
+        <v>0.3926910811191833</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4469777858601122</v>
+        <v>0.4467477443437101</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>487160</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>456105</v>
+        <v>457448</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>519866</v>
+        <v>522288</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4785711331595539</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4480632786423524</v>
+        <v>0.4493825100484472</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5107006234538801</v>
+        <v>0.5130797292613403</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>545</v>
@@ -2307,19 +2307,19 @@
         <v>599137</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>566628</v>
+        <v>566962</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>631634</v>
+        <v>631973</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5804557875789246</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5489601222808698</v>
+        <v>0.5492840798214456</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6119389141687641</v>
+        <v>0.6122675868791057</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>986</v>
@@ -2328,19 +2328,19 @@
         <v>1086297</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1040744</v>
+        <v>1036216</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1131842</v>
+        <v>1131256</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.529867222920827</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.507647544156653</v>
+        <v>0.5054386880769336</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5520827673956543</v>
+        <v>0.551796914192317</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>530787</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>498081</v>
+        <v>495659</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>561842</v>
+        <v>560499</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5214288668404461</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4892993765461198</v>
+        <v>0.4869202707386597</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5519367213576476</v>
+        <v>0.5506174899515528</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>395</v>
@@ -2378,19 +2378,19 @@
         <v>433047</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>400550</v>
+        <v>400211</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>465556</v>
+        <v>465222</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4195442124210754</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3880610858312358</v>
+        <v>0.3877324131208943</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.45103987771913</v>
+        <v>0.4507159201785544</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>890</v>
@@ -2399,19 +2399,19 @@
         <v>963834</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>918289</v>
+        <v>918875</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1009387</v>
+        <v>1013915</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4701327770791731</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4479172326043456</v>
+        <v>0.4482030858076832</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4923524558433471</v>
+        <v>0.4945613119230665</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>344188</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>317140</v>
+        <v>315050</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>374432</v>
+        <v>371923</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4542993406545348</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4185988722869437</v>
+        <v>0.4158399711108822</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4942196156709614</v>
+        <v>0.4909081697445599</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>422</v>
@@ -2524,19 +2524,19 @@
         <v>460575</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>430027</v>
+        <v>432115</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>487214</v>
+        <v>489452</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5926284339504657</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5533207645999877</v>
+        <v>0.55600812274963</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6269048291890535</v>
+        <v>0.629783798951347</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>735</v>
@@ -2545,19 +2545,19 @@
         <v>804763</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>759302</v>
+        <v>762817</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>845243</v>
+        <v>848139</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5243449252921266</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4947248931056628</v>
+        <v>0.4970147966320668</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5507195893676271</v>
+        <v>0.5526068739468581</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>413435</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>383191</v>
+        <v>385700</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>440483</v>
+        <v>442573</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5457006593454652</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5057803843290386</v>
+        <v>0.5090918302554402</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5814011277130563</v>
+        <v>0.5841600288891179</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>283</v>
@@ -2595,19 +2595,19 @@
         <v>316599</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>289960</v>
+        <v>287722</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>347147</v>
+        <v>345059</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4073715660495343</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3730951708109465</v>
+        <v>0.3702162010486531</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4466792354000124</v>
+        <v>0.4439918772503699</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>659</v>
@@ -2616,19 +2616,19 @@
         <v>730034</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>689554</v>
+        <v>686658</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>775495</v>
+        <v>771980</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4756550747078734</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.449280410632373</v>
+        <v>0.4473931260531419</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5052751068943372</v>
+        <v>0.5029852033679333</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>497703</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>468138</v>
+        <v>468521</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>530791</v>
+        <v>528920</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5251476411865187</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4939528257231075</v>
+        <v>0.4943562427305903</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5600605487691334</v>
+        <v>0.5580857716945884</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>643</v>
@@ -2741,19 +2741,19 @@
         <v>678068</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>646998</v>
+        <v>644653</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>708549</v>
+        <v>708792</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6446119514110783</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6150747319650577</v>
+        <v>0.6128453517340062</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6735889014456492</v>
+        <v>0.6738197975593028</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1116</v>
@@ -2762,19 +2762,19 @@
         <v>1175771</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1129667</v>
+        <v>1130214</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1218627</v>
+        <v>1220764</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5879912552783454</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5649352477236788</v>
+        <v>0.5652087452040105</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6094233625396241</v>
+        <v>0.6104921175437099</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>450036</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>416948</v>
+        <v>418819</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>479601</v>
+        <v>479218</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4748523588134814</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4399394512308667</v>
+        <v>0.4419142283054117</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5060471742768925</v>
+        <v>0.5056437572694099</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>360</v>
@@ -2812,19 +2812,19 @@
         <v>373833</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>343352</v>
+        <v>343109</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>404903</v>
+        <v>407248</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3553880485889217</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3264110985543507</v>
+        <v>0.3261802024406972</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3849252680349423</v>
+        <v>0.3871546482659939</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>797</v>
@@ -2833,19 +2833,19 @@
         <v>823869</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>781013</v>
+        <v>778876</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>869973</v>
+        <v>869426</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4120087447216546</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3905766374603758</v>
+        <v>0.38950788245629</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4350647522763212</v>
+        <v>0.4347912547959895</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>1679193</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1620051</v>
+        <v>1617467</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1739126</v>
+        <v>1739967</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4900206961911181</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4727619155116248</v>
+        <v>0.4720079417561156</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5075103626492773</v>
+        <v>0.5077559641525569</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2038</v>
@@ -2958,19 +2958,19 @@
         <v>2201324</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2141764</v>
+        <v>2137402</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2262867</v>
+        <v>2258182</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6186431929966874</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.601905128453436</v>
+        <v>0.6006790568844488</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6359387755816222</v>
+        <v>0.6346222743435425</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3607</v>
@@ -2979,19 +2979,19 @@
         <v>3880516</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3796052</v>
+        <v>3791818</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3967393</v>
+        <v>3966320</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5555429348129856</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5434508822586638</v>
+        <v>0.5428446471638374</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5679803352596084</v>
+        <v>0.567826732978135</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>1747586</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1687653</v>
+        <v>1686812</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1806728</v>
+        <v>1809312</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5099793038088819</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4924896373507227</v>
+        <v>0.492244035847443</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5272380844883751</v>
+        <v>0.5279920582438843</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1260</v>
@@ -3029,19 +3029,19 @@
         <v>1356985</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1295442</v>
+        <v>1300127</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1416545</v>
+        <v>1420907</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3813568070033126</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3640612244183778</v>
+        <v>0.3653777256564579</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3980948715465641</v>
+        <v>0.3993209431155514</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2900</v>
@@ -3050,19 +3050,19 @@
         <v>3104572</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3017695</v>
+        <v>3018768</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3189036</v>
+        <v>3193270</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4444570651870144</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4320196647403913</v>
+        <v>0.4321732670218649</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4565491177413359</v>
+        <v>0.4571553528361624</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>328189</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>303522</v>
+        <v>302881</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>354725</v>
+        <v>355865</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4863504388189435</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.449795865688449</v>
+        <v>0.4488457316052835</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5256738194336446</v>
+        <v>0.5273637620068388</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>377</v>
@@ -3415,19 +3415,19 @@
         <v>381042</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>356298</v>
+        <v>354279</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>407695</v>
+        <v>403758</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5663202859341558</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5295442918067267</v>
+        <v>0.5265434486709831</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6059329490767031</v>
+        <v>0.6000811538222868</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>699</v>
@@ -3436,19 +3436,19 @@
         <v>709232</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>674130</v>
+        <v>675154</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>746343</v>
+        <v>750003</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5262771787583004</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5002304586990204</v>
+        <v>0.5009905146800738</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5538155867456315</v>
+        <v>0.5565314177768129</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>346611</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>320075</v>
+        <v>318935</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>371278</v>
+        <v>371919</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5136495611810565</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4743261805663556</v>
+        <v>0.4726362379931612</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.550204134311551</v>
+        <v>0.5511542683947166</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>289</v>
@@ -3486,19 +3486,19 @@
         <v>291797</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>265144</v>
+        <v>269081</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>316541</v>
+        <v>318560</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4336797140658442</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3940670509232972</v>
+        <v>0.3999188461777132</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4704557081932733</v>
+        <v>0.4734565513290168</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>619</v>
@@ -3507,19 +3507,19 @@
         <v>638407</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>601296</v>
+        <v>597636</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>673509</v>
+        <v>672485</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4737228212416997</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4461844132543685</v>
+        <v>0.4434685822231871</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4997695413009797</v>
+        <v>0.4990094853199262</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>475548</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>442833</v>
+        <v>440209</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>510313</v>
+        <v>507613</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4651151411535677</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4331173283675007</v>
+        <v>0.4305514371017609</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4991171015423748</v>
+        <v>0.496476285026166</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>528</v>
@@ -3632,19 +3632,19 @@
         <v>563684</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>530611</v>
+        <v>529874</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>597118</v>
+        <v>596402</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5404902387769756</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5087775754457292</v>
+        <v>0.5080707570322589</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5725483461715111</v>
+        <v>0.5718619974798835</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>971</v>
@@ -3653,19 +3653,19 @@
         <v>1039232</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>993533</v>
+        <v>995132</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1086625</v>
+        <v>1090959</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5031764372735449</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.481049503571069</v>
+        <v>0.4818239707015951</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5261231310393883</v>
+        <v>0.5282213553765965</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>546883</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>512118</v>
+        <v>514818</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>579598</v>
+        <v>582222</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5348848588464323</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5008828984576252</v>
+        <v>0.5035237149738339</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5668826716324993</v>
+        <v>0.5694485628982391</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>449</v>
@@ -3703,19 +3703,19 @@
         <v>479229</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>445795</v>
+        <v>446511</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>512302</v>
+        <v>513039</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4595097612230244</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4274516538284889</v>
+        <v>0.4281380025201165</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4912224245542708</v>
+        <v>0.4919292429677412</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>957</v>
@@ -3724,19 +3724,19 @@
         <v>1026112</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>978719</v>
+        <v>974385</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1071811</v>
+        <v>1070212</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4968235627264551</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4738768689606122</v>
+        <v>0.4717786446234036</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5189504964289312</v>
+        <v>0.518176029298405</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>324207</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>298563</v>
+        <v>297184</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>351850</v>
+        <v>356467</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4268400618756666</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3930773374286755</v>
+        <v>0.3912623260935863</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4632340876493659</v>
+        <v>0.4693120829300978</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>359</v>
@@ -3849,19 +3849,19 @@
         <v>383490</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>354217</v>
+        <v>352037</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>412023</v>
+        <v>411301</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4885157767242674</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4512252999815711</v>
+        <v>0.4484480777947473</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5248633350012024</v>
+        <v>0.5239434381923815</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>654</v>
@@ -3870,19 +3870,19 @@
         <v>707697</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>664380</v>
+        <v>668591</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>749660</v>
+        <v>749019</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4581862116680979</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4301413891614168</v>
+        <v>0.4328676057729479</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4853543869983938</v>
+        <v>0.4849391522601211</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>435345</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>407702</v>
+        <v>403085</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>460989</v>
+        <v>462368</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5731599381243334</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5367659123506343</v>
+        <v>0.5306879170699021</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6069226625713245</v>
+        <v>0.6087376739064138</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>377</v>
@@ -3920,19 +3920,19 @@
         <v>401521</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>372988</v>
+        <v>373710</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>430794</v>
+        <v>432974</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5114842232757325</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4751366649987977</v>
+        <v>0.4760565618076186</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5487747000184289</v>
+        <v>0.5515519222052527</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>778</v>
@@ -3941,19 +3941,19 @@
         <v>836866</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>794903</v>
+        <v>795544</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>880183</v>
+        <v>875972</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5418137883319021</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5146456130016062</v>
+        <v>0.5150608477398788</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5698586108385836</v>
+        <v>0.5671323942270521</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>506486</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>479230</v>
+        <v>474468</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>537326</v>
+        <v>536648</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5402130664533863</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5111422309261006</v>
+        <v>0.5060627285973942</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5731065087135063</v>
+        <v>0.5723839302112331</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>565</v>
@@ -4066,19 +4066,19 @@
         <v>615640</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>584405</v>
+        <v>580467</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>646782</v>
+        <v>648130</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5898181751187558</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5598931162428045</v>
+        <v>0.5561207365698106</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6196546102301722</v>
+        <v>0.6209459556573077</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1067</v>
@@ -4087,19 +4087,19 @@
         <v>1122126</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1077775</v>
+        <v>1079593</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1162304</v>
+        <v>1167389</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5663451862537235</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5439612566922282</v>
+        <v>0.5448787216526529</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5866234943882241</v>
+        <v>0.5891899009230057</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>431081</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>400241</v>
+        <v>400919</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>458337</v>
+        <v>463099</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4597869335466137</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4268934912864936</v>
+        <v>0.4276160697887669</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4888577690738995</v>
+        <v>0.4939372714026061</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>394</v>
@@ -4137,19 +4137,19 @@
         <v>428139</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>396997</v>
+        <v>395649</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>459374</v>
+        <v>463312</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4101818248812442</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3803453897698277</v>
+        <v>0.3790540443426922</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4401068837571955</v>
+        <v>0.443879263430188</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>824</v>
@@ -4158,19 +4158,19 @@
         <v>859220</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>819042</v>
+        <v>813957</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>903571</v>
+        <v>901753</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4336548137462765</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4133765056117758</v>
+        <v>0.4108100990769943</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4560387433077719</v>
+        <v>0.4551212783473471</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>1634431</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1577380</v>
+        <v>1570431</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1697191</v>
+        <v>1691418</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4815150355797339</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4647076255515625</v>
+        <v>0.4626602087230561</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.500004738047739</v>
+        <v>0.4983040676580651</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1829</v>
@@ -4283,19 +4283,19 @@
         <v>1943857</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1884316</v>
+        <v>1878866</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2005065</v>
+        <v>2003528</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5484084415923026</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5316105152113435</v>
+        <v>0.5300729822659244</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5656768869817007</v>
+        <v>0.5652430059532721</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3391</v>
@@ -4304,19 +4304,19 @@
         <v>3578287</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3493703</v>
+        <v>3496204</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3664130</v>
+        <v>3654894</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5156856892484182</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5034957511439434</v>
+        <v>0.5038563021554011</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5280568980529647</v>
+        <v>0.5267258262939751</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>1759919</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1697159</v>
+        <v>1702932</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1816970</v>
+        <v>1823919</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5184849644202661</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4999952619522611</v>
+        <v>0.5016959323419349</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5352923744484377</v>
+        <v>0.5373397912769439</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1509</v>
@@ -4354,19 +4354,19 @@
         <v>1600685</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1539477</v>
+        <v>1541014</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1660226</v>
+        <v>1665676</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4515915584076973</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4343231130182993</v>
+        <v>0.4347569940467276</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4683894847886564</v>
+        <v>0.4699270177340757</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3178</v>
@@ -4375,19 +4375,19 @@
         <v>3360605</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3274762</v>
+        <v>3283998</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3445189</v>
+        <v>3442688</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4843143107515819</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4719431019470353</v>
+        <v>0.4732741737060251</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4965042488560567</v>
+        <v>0.4961436978445989</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>263931</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>238506</v>
+        <v>239063</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>289782</v>
+        <v>290939</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3854288551356939</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3483004306764148</v>
+        <v>0.3491142100790137</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4231809703993504</v>
+        <v>0.4248700410540701</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>630</v>
@@ -4740,19 +4740,19 @@
         <v>341102</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>318744</v>
+        <v>320267</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>364869</v>
+        <v>364396</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4691717504264851</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4384181686298015</v>
+        <v>0.440513838445658</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5018612532127684</v>
+        <v>0.5012109527418229</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>942</v>
@@ -4761,19 +4761,19 @@
         <v>605033</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>571107</v>
+        <v>570326</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>640614</v>
+        <v>641339</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.4285536409917842</v>
+        <v>0.4285536409917843</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4045237439727158</v>
+        <v>0.4039701776025151</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4537561523712338</v>
+        <v>0.4542698820743463</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>420840</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>394989</v>
+        <v>393832</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>446265</v>
+        <v>445708</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6145711448643062</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5768190296006495</v>
+        <v>0.5751299589459299</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.651699569323585</v>
+        <v>0.6508857899209861</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>597</v>
@@ -4811,19 +4811,19 @@
         <v>385929</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>362162</v>
+        <v>362635</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>408287</v>
+        <v>406764</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5308282495735148</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4981387467872313</v>
+        <v>0.4987890472581771</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5615818313701983</v>
+        <v>0.5594861615543421</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1009</v>
@@ -4832,19 +4832,19 @@
         <v>806769</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>771188</v>
+        <v>770463</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>840695</v>
+        <v>841476</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.5714463590082157</v>
+        <v>0.5714463590082158</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5462438476287661</v>
+        <v>0.5457301179256537</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5954762560272842</v>
+        <v>0.596029822397485</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>436982</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>404586</v>
+        <v>401499</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>473723</v>
+        <v>473566</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.4186332199785791</v>
+        <v>0.4186332199785792</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3875974526618904</v>
+        <v>0.3846396866336005</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4538315075850982</v>
+        <v>0.4536803323591813</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>795</v>
@@ -4957,19 +4957,19 @@
         <v>523193</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>494939</v>
+        <v>493459</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>551598</v>
+        <v>551344</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4912095933931452</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4646826125816065</v>
+        <v>0.4632932875785021</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5178782406828708</v>
+        <v>0.5176398740497892</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1241</v>
@@ -4978,19 +4978,19 @@
         <v>960176</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>916058</v>
+        <v>913380</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1010918</v>
+        <v>1005857</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4552875698936542</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.434368470993384</v>
+        <v>0.4330983577485537</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4793482214966217</v>
+        <v>0.4769484115035211</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>606849</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>570108</v>
+        <v>570265</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>639245</v>
+        <v>642332</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.5813667800214209</v>
+        <v>0.5813667800214208</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.546168492414902</v>
+        <v>0.5463196676408189</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6124025473381096</v>
+        <v>0.6153603133663996</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>711</v>
@@ -5028,19 +5028,19 @@
         <v>541918</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>513513</v>
+        <v>513767</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>570172</v>
+        <v>571652</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5087904066068547</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4821217593171293</v>
+        <v>0.4823601259502107</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5353173874183935</v>
+        <v>0.5367067124214981</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1224</v>
@@ -5049,19 +5049,19 @@
         <v>1148767</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1098025</v>
+        <v>1103086</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1192885</v>
+        <v>1195563</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.544712430106346</v>
+        <v>0.5447124301063458</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5206517785033784</v>
+        <v>0.5230515884964793</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5656315290066161</v>
+        <v>0.5669016422514462</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>321866</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>291742</v>
+        <v>291232</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>352713</v>
+        <v>353594</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.4021589315399457</v>
+        <v>0.4021589315399458</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3645206706939782</v>
+        <v>0.3638833112415574</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4407009635433512</v>
+        <v>0.4418022656884736</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>529</v>
@@ -5174,19 +5174,19 @@
         <v>408582</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>384354</v>
+        <v>380750</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>434717</v>
+        <v>433239</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5041708001609935</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4742751048013347</v>
+        <v>0.4698280358183927</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5364202369106771</v>
+        <v>0.5345972194295638</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>811</v>
@@ -5195,19 +5195,19 @@
         <v>730448</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>684971</v>
+        <v>688379</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>771026</v>
+        <v>768449</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.4534833525517388</v>
+        <v>0.4534833525517389</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4252498406755241</v>
+        <v>0.4273655659357843</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4786754081101817</v>
+        <v>0.4770753701484638</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>478479</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>447632</v>
+        <v>446751</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>508603</v>
+        <v>509113</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.5978410684600541</v>
+        <v>0.5978410684600544</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5592990364566488</v>
+        <v>0.5581977343115263</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6354793293060217</v>
+        <v>0.6361166887584423</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>515</v>
@@ -5245,19 +5245,19 @@
         <v>401821</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>375686</v>
+        <v>377164</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>426049</v>
+        <v>429653</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4958291998390066</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4635797630893231</v>
+        <v>0.4654027805704359</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5257248951986655</v>
+        <v>0.5301719641816069</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>907</v>
@@ -5266,19 +5266,19 @@
         <v>880301</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>839723</v>
+        <v>842300</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>925778</v>
+        <v>922370</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.5465166474482611</v>
+        <v>0.5465166474482612</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5213245918898184</v>
+        <v>0.5229246298515363</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5747501593244757</v>
+        <v>0.5726344340642159</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>448203</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>418073</v>
+        <v>416394</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>482496</v>
+        <v>482093</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.4544954633033915</v>
+        <v>0.4544954633033916</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4239428711925923</v>
+        <v>0.4222397352816566</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4892698815162095</v>
+        <v>0.488861690682577</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>879</v>
@@ -5391,19 +5391,19 @@
         <v>613311</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>581216</v>
+        <v>584525</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>640520</v>
+        <v>644098</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5510024140386459</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5221683270015181</v>
+        <v>0.5251412561596884</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.575447105278827</v>
+        <v>0.5786621109343943</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1359</v>
@@ -5412,19 +5412,19 @@
         <v>1061514</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1013679</v>
+        <v>1017975</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1104902</v>
+        <v>1102938</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5056665216717061</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4828798922846232</v>
+        <v>0.4849262376355771</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5263352023755822</v>
+        <v>0.5253996753704805</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>537952</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>503659</v>
+        <v>504062</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>568082</v>
+        <v>569761</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5455045366966084</v>
+        <v>0.5455045366966085</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5107301184837905</v>
+        <v>0.5111383093174229</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5760571288074074</v>
+        <v>0.5777602647183434</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>675</v>
@@ -5462,19 +5462,19 @@
         <v>499771</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>472562</v>
+        <v>468984</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>531866</v>
+        <v>528557</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.448997585961354</v>
+        <v>0.4489975859613539</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.424552894721173</v>
+        <v>0.4213378890656057</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4778316729984819</v>
+        <v>0.4748587438403117</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1196</v>
@@ -5483,19 +5483,19 @@
         <v>1037723</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>994335</v>
+        <v>996299</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1085558</v>
+        <v>1081262</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4943334783282939</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4736647976244189</v>
+        <v>0.4746003246295197</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5171201077153772</v>
+        <v>0.515073762364423</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>1470982</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1410454</v>
+        <v>1408774</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1536472</v>
+        <v>1532606</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.4184748211465575</v>
+        <v>0.4184748211465576</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4012554461106523</v>
+        <v>0.4007775378943373</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4371058586141767</v>
+        <v>0.4360059590654434</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2833</v>
@@ -5608,19 +5608,19 @@
         <v>1886188</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1832486</v>
+        <v>1829329</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1942731</v>
+        <v>1937551</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.5076364165484988</v>
+        <v>0.5076364165484987</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.493183562784454</v>
+        <v>0.4923339000398586</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.522854044632561</v>
+        <v>0.5214599813820711</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4353</v>
@@ -5629,19 +5629,19 @@
         <v>3357170</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3274601</v>
+        <v>3271550</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3444627</v>
+        <v>3433110</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.4642919476804128</v>
+        <v>0.4642919476804127</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4528728016253796</v>
+        <v>0.452450867742862</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4763871265550031</v>
+        <v>0.4747944123894549</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>2044121</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1978631</v>
+        <v>1982497</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2104649</v>
+        <v>2106329</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5815251788534423</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5628941413858233</v>
+        <v>0.5639940409345566</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5987445538893479</v>
+        <v>0.5992224621056627</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2498</v>
@@ -5679,19 +5679,19 @@
         <v>1829439</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1772896</v>
+        <v>1778076</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1883141</v>
+        <v>1886298</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.4923635834515013</v>
+        <v>0.4923635834515012</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4771459553674391</v>
+        <v>0.4785400186179291</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5068164372155459</v>
+        <v>0.5076660999601419</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4336</v>
@@ -5700,19 +5700,19 @@
         <v>3873560</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3786103</v>
+        <v>3797620</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3956129</v>
+        <v>3959180</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.5357080523195873</v>
+        <v>0.5357080523195872</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5236128734449971</v>
+        <v>0.5252055876105451</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5471271983746206</v>
+        <v>0.5475491322571374</v>
       </c>
     </row>
     <row r="18">
